--- a/data/outputs/activity_summarised_age_group.xlsx
+++ b/data/outputs/activity_summarised_age_group.xlsx
@@ -492,22 +492,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.87491</v>
+        <v>0.87492</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55516</v>
+        <v>0.55518</v>
       </c>
       <c r="E2" t="n">
         <v>0.31974</v>
       </c>
       <c r="F2" t="n">
-        <v>124.293879</v>
+        <v>124.4</v>
       </c>
       <c r="G2" t="n">
-        <v>447.887311</v>
+        <v>448.14</v>
       </c>
       <c r="H2" t="n">
-        <v>572.18119</v>
+        <v>572.54</v>
       </c>
       <c r="I2" t="n">
         <v>0.8</v>
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.86942</v>
+        <v>0.86952</v>
       </c>
       <c r="D3" t="n">
-        <v>0.68149</v>
+        <v>0.68157</v>
       </c>
       <c r="E3" t="n">
-        <v>0.18792</v>
+        <v>0.18794</v>
       </c>
       <c r="F3" t="n">
-        <v>182.585953</v>
+        <v>182.78</v>
       </c>
       <c r="G3" t="n">
-        <v>236.379655</v>
+        <v>236.57</v>
       </c>
       <c r="H3" t="n">
-        <v>418.965608</v>
+        <v>419.35</v>
       </c>
       <c r="I3" t="n">
         <v>0.6</v>
@@ -558,22 +558,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.85419</v>
+        <v>0.85425</v>
       </c>
       <c r="D4" t="n">
-        <v>0.53979</v>
+        <v>0.53966</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3144</v>
+        <v>0.3146</v>
       </c>
       <c r="F4" t="n">
-        <v>165.312843031</v>
+        <v>165.22</v>
       </c>
       <c r="G4" t="n">
-        <v>528.805593811</v>
+        <v>528.37</v>
       </c>
       <c r="H4" t="n">
-        <v>694.1184368419999</v>
+        <v>693.59</v>
       </c>
       <c r="I4" t="n">
         <v>0.8</v>
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.82723</v>
+        <v>0.82724</v>
       </c>
       <c r="D5" t="n">
-        <v>0.59573</v>
+        <v>0.59575</v>
       </c>
       <c r="E5" t="n">
-        <v>0.23151</v>
+        <v>0.23149</v>
       </c>
       <c r="F5" t="n">
-        <v>146.237411699</v>
+        <v>146.1</v>
       </c>
       <c r="G5" t="n">
-        <v>258.279560894</v>
+        <v>258.11</v>
       </c>
       <c r="H5" t="n">
-        <v>404.516972593</v>
+        <v>404.21</v>
       </c>
       <c r="I5" t="n">
         <v>0.6</v>
@@ -624,22 +624,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.82031</v>
+        <v>0.82038</v>
       </c>
       <c r="D6" t="n">
-        <v>0.61538</v>
+        <v>0.61537</v>
       </c>
       <c r="E6" t="n">
-        <v>0.20493</v>
+        <v>0.20502</v>
       </c>
       <c r="F6" t="n">
-        <v>163.785533399</v>
+        <v>163.85</v>
       </c>
       <c r="G6" t="n">
-        <v>596.923674891</v>
+        <v>597.17</v>
       </c>
       <c r="H6" t="n">
-        <v>760.70920829</v>
+        <v>761.02</v>
       </c>
       <c r="I6" t="n">
         <v>0.8</v>
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.76115</v>
+        <v>0.76118</v>
       </c>
       <c r="D7" t="n">
-        <v>0.62082</v>
+        <v>0.62078</v>
       </c>
       <c r="E7" t="n">
-        <v>0.14033</v>
+        <v>0.1404</v>
       </c>
       <c r="F7" t="n">
-        <v>131.236739803</v>
+        <v>131.27</v>
       </c>
       <c r="G7" t="n">
-        <v>361.544038567</v>
+        <v>361.45</v>
       </c>
       <c r="H7" t="n">
-        <v>492.78077837</v>
+        <v>492.72</v>
       </c>
       <c r="I7" t="n">
         <v>0.7</v>
@@ -690,22 +690,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.74839</v>
+        <v>0.74837</v>
       </c>
       <c r="D8" t="n">
-        <v>0.59958</v>
+        <v>0.5994699999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.14881</v>
+        <v>0.1489</v>
       </c>
       <c r="F8" t="n">
-        <v>149.644578413</v>
+        <v>150.06</v>
       </c>
       <c r="G8" t="n">
-        <v>381.413229602</v>
+        <v>382.47</v>
       </c>
       <c r="H8" t="n">
-        <v>531.057808015</v>
+        <v>532.53</v>
       </c>
       <c r="I8" t="n">
         <v>0.7</v>
@@ -723,22 +723,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.91131</v>
+        <v>0.91121</v>
       </c>
       <c r="D9" t="n">
-        <v>0.71594</v>
+        <v>0.71597</v>
       </c>
       <c r="E9" t="n">
-        <v>0.19537</v>
+        <v>0.19524</v>
       </c>
       <c r="F9" t="n">
-        <v>167.323045721</v>
+        <v>167.69</v>
       </c>
       <c r="G9" t="n">
-        <v>218.301021669</v>
+        <v>218.85</v>
       </c>
       <c r="H9" t="n">
-        <v>385.62406739</v>
+        <v>386.54</v>
       </c>
       <c r="I9" t="n">
         <v>0.6</v>
@@ -756,22 +756,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.57802</v>
+        <v>0.55407</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2048</v>
+        <v>0.21285</v>
       </c>
       <c r="E10" t="n">
-        <v>0.37322</v>
+        <v>0.34122</v>
       </c>
       <c r="F10" t="n">
-        <v>192.91514206</v>
+        <v>209.81</v>
       </c>
       <c r="G10" t="n">
-        <v>574.362338873</v>
+        <v>568.38</v>
       </c>
       <c r="H10" t="n">
-        <v>767.277480933</v>
+        <v>778.1900000000001</v>
       </c>
       <c r="I10" t="n">
         <v>0.7</v>
@@ -789,22 +789,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.62893</v>
+        <v>0.57672</v>
       </c>
       <c r="D11" t="n">
-        <v>0.243</v>
+        <v>0.2408</v>
       </c>
       <c r="E11" t="n">
-        <v>0.38593</v>
+        <v>0.33592</v>
       </c>
       <c r="F11" t="n">
-        <v>131.556348271</v>
+        <v>126.04</v>
       </c>
       <c r="G11" t="n">
-        <v>231.457246998</v>
+        <v>186.38</v>
       </c>
       <c r="H11" t="n">
-        <v>363.013595269</v>
+        <v>312.42</v>
       </c>
       <c r="I11" t="n">
         <v>0.6</v>
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.76942</v>
+        <v>0.81495</v>
       </c>
       <c r="D12" t="n">
-        <v>0.43385</v>
+        <v>0.43972</v>
       </c>
       <c r="E12" t="n">
-        <v>0.33557</v>
+        <v>0.37522</v>
       </c>
       <c r="F12" t="n">
-        <v>75.767904587</v>
+        <v>84.84</v>
       </c>
       <c r="G12" t="n">
-        <v>517.526055116</v>
+        <v>505.25</v>
       </c>
       <c r="H12" t="n">
-        <v>593.2939597029999</v>
+        <v>590.09</v>
       </c>
       <c r="I12" t="n">
         <v>0.9</v>
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.78584</v>
+        <v>0.7819700000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.50664</v>
+        <v>0.51217</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2792</v>
+        <v>0.2698</v>
       </c>
       <c r="F13" t="n">
-        <v>240.02585474</v>
+        <v>216.76</v>
       </c>
       <c r="G13" t="n">
-        <v>475.017307283</v>
+        <v>530.04</v>
       </c>
       <c r="H13" t="n">
-        <v>715.0431620229999</v>
+        <v>746.8</v>
       </c>
       <c r="I13" t="n">
         <v>0.7</v>
@@ -888,22 +888,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7647699999999999</v>
+        <v>0.7648</v>
       </c>
       <c r="D14" t="n">
-        <v>0.45965</v>
+        <v>0.45957</v>
       </c>
       <c r="E14" t="n">
-        <v>0.30512</v>
+        <v>0.30522</v>
       </c>
       <c r="F14" t="n">
-        <v>131.891956</v>
+        <v>131.97</v>
       </c>
       <c r="G14" t="n">
-        <v>369.896285</v>
+        <v>369.93</v>
       </c>
       <c r="H14" t="n">
-        <v>501.788241</v>
+        <v>501.9</v>
       </c>
       <c r="I14" t="n">
         <v>0.7</v>
@@ -921,22 +921,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.81945</v>
+        <v>0.81932</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6182</v>
+        <v>0.61812</v>
       </c>
       <c r="E15" t="n">
-        <v>0.20125</v>
+        <v>0.2012</v>
       </c>
       <c r="F15" t="n">
-        <v>187.385981</v>
+        <v>187.46</v>
       </c>
       <c r="G15" t="n">
-        <v>194.555401</v>
+        <v>194.59</v>
       </c>
       <c r="H15" t="n">
-        <v>381.941382</v>
+        <v>382.05</v>
       </c>
       <c r="I15" t="n">
         <v>0.5</v>
@@ -1020,22 +1020,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.89758</v>
+        <v>0.89757</v>
       </c>
       <c r="D18" t="n">
-        <v>0.60022</v>
+        <v>0.60023</v>
       </c>
       <c r="E18" t="n">
-        <v>0.29736</v>
+        <v>0.29734</v>
       </c>
       <c r="F18" t="n">
-        <v>201.256491487</v>
+        <v>201.21</v>
       </c>
       <c r="G18" t="n">
-        <v>742.919878573</v>
+        <v>742.8200000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>944.17637006</v>
+        <v>944.0300000000001</v>
       </c>
       <c r="I18" t="n">
         <v>0.8</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.87668</v>
+        <v>0.87652</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7230799999999999</v>
+        <v>0.72307</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1536</v>
+        <v>0.15345</v>
       </c>
       <c r="F19" t="n">
-        <v>109.151354859</v>
+        <v>109.17</v>
       </c>
       <c r="G19" t="n">
-        <v>365.501500886</v>
+        <v>365.47</v>
       </c>
       <c r="H19" t="n">
-        <v>474.652855745</v>
+        <v>474.64</v>
       </c>
       <c r="I19" t="n">
         <v>0.8</v>
@@ -1086,22 +1086,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.86788</v>
+        <v>0.86774</v>
       </c>
       <c r="D20" t="n">
-        <v>0.58816</v>
+        <v>0.58827</v>
       </c>
       <c r="E20" t="n">
-        <v>0.27972</v>
+        <v>0.27947</v>
       </c>
       <c r="F20" t="n">
-        <v>114.931585</v>
+        <v>115</v>
       </c>
       <c r="G20" t="n">
-        <v>875.3232919999999</v>
+        <v>875.8199999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>990.254877</v>
+        <v>990.8199999999999</v>
       </c>
       <c r="I20" t="n">
         <v>0.9</v>
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8845</v>
+        <v>0.88442</v>
       </c>
       <c r="D21" t="n">
-        <v>0.59783</v>
+        <v>0.59774</v>
       </c>
       <c r="E21" t="n">
-        <v>0.28667</v>
+        <v>0.28669</v>
       </c>
       <c r="F21" t="n">
-        <v>137.28979</v>
+        <v>137.31</v>
       </c>
       <c r="G21" t="n">
-        <v>424.940863</v>
+        <v>425.07</v>
       </c>
       <c r="H21" t="n">
-        <v>562.230653</v>
+        <v>562.38</v>
       </c>
       <c r="I21" t="n">
         <v>0.8</v>
